--- a/8 класс/контрольные/Мат осн инф/Книга1.xlsx
+++ b/8 класс/контрольные/Мат осн инф/Книга1.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lot-w\Documents\lot\teacher\8 класс\контрольные\Мат осн инф\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Лектор\lot\teacher\8 класс\контрольные\Мат осн инф\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1176" windowHeight="72"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1170" windowHeight="75"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>¬B&amp;(AVB)</t>
   </si>
@@ -41,9 +41,6 @@
     <t>B&amp;(¬AV¬B)</t>
   </si>
   <si>
-    <t>¬((BVA)&amp;A))</t>
-  </si>
-  <si>
     <t>(B&amp;¬A)&amp;A</t>
   </si>
   <si>
@@ -51,13 +48,76 @@
   </si>
   <si>
     <t>¬(B&amp;(AV¬C))</t>
+  </si>
+  <si>
+    <t>Антонова Елена </t>
+  </si>
+  <si>
+    <t>Белик Арсений </t>
+  </si>
+  <si>
+    <t>Зубрий Серафим </t>
+  </si>
+  <si>
+    <t>Купцов Семён </t>
+  </si>
+  <si>
+    <t>Нескуб Дмитрий </t>
+  </si>
+  <si>
+    <t>Петров Максим </t>
+  </si>
+  <si>
+    <t>Постников Михаил </t>
+  </si>
+  <si>
+    <t>Прокопенко Елизавета </t>
+  </si>
+  <si>
+    <t>Сопина Анастасия </t>
+  </si>
+  <si>
+    <t>Студеникина Елизавета </t>
+  </si>
+  <si>
+    <t>Туманов Константин </t>
+  </si>
+  <si>
+    <t>Ульева Елизавета </t>
+  </si>
+  <si>
+    <t>Чемагина Анастасия </t>
+  </si>
+  <si>
+    <t>Шкляр Пётр </t>
+  </si>
+  <si>
+    <t>Н</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>Печать журнала</t>
+  </si>
+  <si>
+    <t>&amp; -И</t>
+  </si>
+  <si>
+    <t>V - ИЛИ</t>
+  </si>
+  <si>
+    <t>¬((BVA)&amp;A)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,13 +125,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="14"/>
@@ -87,6 +140,64 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242729"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9.35"/>
+      <color rgb="FF242729"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFA40800"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFAAAAAA"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF004EBC"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3FA149"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9.35"/>
+      <color rgb="FF888888"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -96,7 +207,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -104,21 +215,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -397,73 +560,461 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:E16"/>
+  <dimension ref="C3:F105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="7" spans="4:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="D7" s="2" t="s">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="4:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="D8" s="2" t="s">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="3:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="4:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="D9" s="2" t="s">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="3:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="4:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="D10" s="2" t="s">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="3:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="4:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="D11" s="2" t="s">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="3:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="4:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="D12" s="2" t="s">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="3:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="3:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="4:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="3:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="4:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="3:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="C15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="4:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="4:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="D16" s="1"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="3:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="C16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="C17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="C18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="3:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F67" s="8"/>
+    </row>
+    <row r="68" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F71" s="8"/>
+    </row>
+    <row r="72" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F75" s="8"/>
+    </row>
+    <row r="76" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F76" s="6"/>
+    </row>
+    <row r="77" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F81" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F82" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F83" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F84" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F85" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F86" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F87" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F88" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F89" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="6:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F90" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F91" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F92" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F93" s="11">
+        <v>12145</v>
+      </c>
+    </row>
+    <row r="94" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F94" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F95" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F96" s="12">
+        <v>18354</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F97" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F98" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F99" s="11">
+        <v>24563</v>
+      </c>
+    </row>
+    <row r="100" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F100" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F101" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F102" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F103" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F104" s="12">
+        <v>18354</v>
+      </c>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F105" s="13" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F105" r:id="rId1" tooltip="Печать журнала" display="https://pleskovo.eljur.ru/journal-printpdf-window-action/class.10%D0%90/lesson_id.26/part.III+%D1%87%D0%B5%D1%82%D0%B2%D0%B5%D1%80%D1%82%D1%8C/sp.II+%D0%BF%D0%BE%D0%BB%D1%83%D0%B3%D0%BE%D0%B4%D0%B8%D0%B5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>